--- a/sampleA.xlsx
+++ b/sampleA.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taku\Documents\00_ROOT\00_WORK\CODE\SPECSHEET_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7243B-522A-40B3-AA3F-0A85A6C2B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA370C7-3442-4B8C-B517-B015006A5EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="18390" windowWidth="14775" windowHeight="9165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1490" yWindow="1950" windowWidth="14820" windowHeight="9190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connections" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="n2n" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>aa</t>
     <phoneticPr fontId="1"/>
@@ -61,10 +60,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>n2n_to</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tgt1_0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,18 +113,6 @@
   </si>
   <si>
     <t>init1_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>n2n_target</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HOGE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
@@ -489,16 +472,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -506,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -523,7 +506,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -540,7 +523,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -557,7 +540,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -582,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA95264-EE23-48B2-B29D-471B50841E9C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -614,16 +597,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -631,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -648,7 +631,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -665,7 +648,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -682,7 +665,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -695,50 +678,6 @@
       </c>
       <c r="F8" t="s">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7C2DD2-1F84-4261-A7D3-41353D34BBAD}">
-  <dimension ref="A2:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
